--- a/docs/normalized heuristics.xlsx
+++ b/docs/normalized heuristics.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Itay\IDEA Projects\gp-heuristic\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Itay\IdeaProjects\gp-heuristic\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -141,15 +141,9 @@
     <t>realPortals</t>
   </si>
   <si>
-    <t>realsokoban</t>
-  </si>
-  <si>
     <t>zenpuzzle</t>
   </si>
   <si>
-    <t>citadral</t>
-  </si>
-  <si>
     <t>sometimes loses battles. seems luck based, but can constantly win 2/5 levels.</t>
   </si>
   <si>
@@ -166,6 +160,12 @@
   </si>
   <si>
     <t>only wins trivial</t>
+  </si>
+  <si>
+    <t>realSokoban</t>
+  </si>
+  <si>
+    <t>thecitadel</t>
   </si>
 </sst>
 </file>
@@ -510,8 +510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -646,7 +646,7 @@
         <v>2</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -891,7 +891,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -948,7 +948,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -1032,7 +1032,7 @@
         <v>4</v>
       </c>
       <c r="I19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -1138,7 +1138,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="I26" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -1161,7 +1161,7 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G29" t="e">
         <f t="shared" si="0"/>
@@ -1170,7 +1170,7 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G30" t="e">
         <f t="shared" si="0"/>
@@ -1179,7 +1179,7 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G31" t="e">
         <f t="shared" si="0"/>
